--- a/public/excel/format_tukin.xlsx
+++ b/public/excel/format_tukin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sdm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5295623-2F56-480B-9B09-554E3D379949}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADC34D2-A353-44BF-AE86-9B0662B9B482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BE166509-4F68-4409-87BC-55D7B526AE09}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Drs. Fajar Wahyudi, Apt</t>
-  </si>
-  <si>
     <t>Norhusana Avariyana</t>
   </si>
   <si>
@@ -57,13 +54,16 @@
     <t>NIP</t>
   </si>
   <si>
-    <t>196307041992031002</t>
-  </si>
-  <si>
     <t>196410221985032001</t>
   </si>
   <si>
     <t>196410271986032001</t>
+  </si>
+  <si>
+    <t>199701132019031001</t>
+  </si>
+  <si>
+    <t>Muhammad Fikry</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,50 +501,50 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="8">
-        <v>10</v>
-      </c>
       <c r="E2" s="8">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F2" s="8">
-        <v>9000</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>20000</v>
@@ -561,10 +561,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>15000</v>
